--- a/data/InVivo2/JM_InVivo2_EchoRandomisation_max.xlsx
+++ b/data/InVivo2/JM_InVivo2_EchoRandomisation_max.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tfb64483/Software/SPECT-analysis/data/InVivo2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C25AE908-B7A5-0C4B-ABA4-771BAB908C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210FBE15-AD5E-D842-80DC-02B11A67E669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11960" yWindow="500" windowWidth="23880" windowHeight="21900" xr2:uid="{8EE6A4EC-F606-1E41-9E7F-16E304DBBB76}"/>
   </bookViews>
@@ -360,14 +360,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -706,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B330A9-AD8E-7549-B0E2-A52116986967}">
   <dimension ref="B1:J130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="89" workbookViewId="0">
+      <selection activeCell="I138" sqref="I138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -721,14 +721,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="27" x14ac:dyDescent="0.35">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="2:10" ht="20" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
@@ -751,7 +751,7 @@
       </c>
     </row>
     <row r="3" spans="2:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -767,8 +767,7 @@
         <v>45535</v>
       </c>
       <c r="G3" s="22">
-        <f t="array" aca="1" ref="G3:G130" ca="1">_xlfn.SORTBY(_xlfn.SEQUENCE(128),_xlfn.RANDARRAY(128))</f>
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="I3" s="19" t="s">
         <v>10</v>
@@ -778,7 +777,7 @@
       </c>
     </row>
     <row r="4" spans="2:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="15" t="s">
@@ -794,8 +793,7 @@
         <v>45535</v>
       </c>
       <c r="G4" s="22">
-        <f ca="1"/>
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="I4" s="20" t="s">
         <v>14</v>
@@ -806,7 +804,7 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -822,12 +820,11 @@
         <v>45535</v>
       </c>
       <c r="G5" s="22">
-        <f ca="1"/>
-        <v>69</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -843,8 +840,7 @@
         <v>45537</v>
       </c>
       <c r="G6" s="22">
-        <f ca="1"/>
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="I6" s="21" t="s">
         <v>19</v>
@@ -854,7 +850,7 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -870,8 +866,7 @@
         <v>45535</v>
       </c>
       <c r="G7" s="22">
-        <f ca="1"/>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I7" s="21" t="s">
         <v>22</v>
@@ -881,7 +876,7 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -897,12 +892,11 @@
         <v>45535</v>
       </c>
       <c r="G8" s="22">
-        <f ca="1"/>
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -918,12 +912,11 @@
         <v>45535</v>
       </c>
       <c r="G9" s="22">
-        <f ca="1"/>
-        <v>23</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -939,12 +932,11 @@
         <v>45537</v>
       </c>
       <c r="G10" s="22">
-        <f ca="1"/>
-        <v>122</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
@@ -960,12 +952,11 @@
         <v>45537</v>
       </c>
       <c r="G11" s="22">
-        <f ca="1"/>
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -981,12 +972,11 @@
         <v>45537</v>
       </c>
       <c r="G12" s="22">
-        <f ca="1"/>
-        <v>10</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -1002,12 +992,11 @@
         <v>45537</v>
       </c>
       <c r="G13" s="22">
-        <f ca="1"/>
-        <v>36</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -1023,12 +1012,11 @@
         <v>45537</v>
       </c>
       <c r="G14" s="22">
-        <f ca="1"/>
-        <v>1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -1044,12 +1032,11 @@
         <v>45537</v>
       </c>
       <c r="G15" s="22">
-        <f ca="1"/>
-        <v>111</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -1065,12 +1052,11 @@
         <v>45537</v>
       </c>
       <c r="G16" s="22">
-        <f ca="1"/>
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -1086,12 +1072,11 @@
         <v>45537</v>
       </c>
       <c r="G17" s="22">
-        <f ca="1"/>
-        <v>103</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -1107,12 +1092,11 @@
         <v>45537</v>
       </c>
       <c r="G18" s="22">
-        <f ca="1"/>
-        <v>99</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="26" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -1128,12 +1112,11 @@
         <v>45590</v>
       </c>
       <c r="G19" s="23">
-        <f ca="1"/>
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="26" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1149,12 +1132,11 @@
         <v>45590</v>
       </c>
       <c r="G20" s="23">
-        <f ca="1"/>
-        <v>32</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="26" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1170,12 +1152,11 @@
         <v>45590</v>
       </c>
       <c r="G21" s="23">
-        <f ca="1"/>
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="26" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -1191,12 +1172,11 @@
         <v>45590</v>
       </c>
       <c r="G22" s="23">
-        <f ca="1"/>
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="26" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -1212,12 +1192,11 @@
         <v>45597</v>
       </c>
       <c r="G23" s="23">
-        <f ca="1"/>
-        <v>120</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="26" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1233,12 +1212,11 @@
         <v>45590</v>
       </c>
       <c r="G24" s="23">
-        <f ca="1"/>
         <v>34</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="26" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1254,12 +1232,11 @@
         <v>45597</v>
       </c>
       <c r="G25" s="23">
-        <f ca="1"/>
-        <v>31</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="26" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -1275,12 +1252,11 @@
         <v>45590</v>
       </c>
       <c r="G26" s="23">
-        <f ca="1"/>
-        <v>13</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="26" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -1296,12 +1272,11 @@
         <v>45597</v>
       </c>
       <c r="G27" s="23">
-        <f ca="1"/>
-        <v>73</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="26" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1317,12 +1292,11 @@
         <v>45597</v>
       </c>
       <c r="G28" s="23">
-        <f ca="1"/>
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="26" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1338,12 +1312,11 @@
         <v>45597</v>
       </c>
       <c r="G29" s="23">
-        <f ca="1"/>
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="26" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -1359,12 +1332,11 @@
         <v>45597</v>
       </c>
       <c r="G30" s="23">
-        <f ca="1"/>
-        <v>66</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="26" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -1380,12 +1352,11 @@
         <v>45597</v>
       </c>
       <c r="G31" s="23">
-        <f ca="1"/>
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="26" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1401,12 +1372,11 @@
         <v>45597</v>
       </c>
       <c r="G32" s="23">
-        <f ca="1"/>
-        <v>93</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="26" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1422,12 +1392,11 @@
         <v>45597</v>
       </c>
       <c r="G33" s="23">
-        <f ca="1"/>
-        <v>117</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="26" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -1443,12 +1412,11 @@
         <v>45597</v>
       </c>
       <c r="G34" s="23">
-        <f ca="1"/>
-        <v>19</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="25" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="12" t="s">
@@ -1464,12 +1432,11 @@
         <v>45612</v>
       </c>
       <c r="G35" s="22">
-        <f ca="1"/>
-        <v>106</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="25" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="15" t="s">
@@ -1485,12 +1452,11 @@
         <v>45612</v>
       </c>
       <c r="G36" s="22">
-        <f ca="1"/>
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="25" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="15" t="s">
@@ -1506,12 +1472,11 @@
         <v>45612</v>
       </c>
       <c r="G37" s="22">
-        <f ca="1"/>
-        <v>68</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="25" t="s">
         <v>35</v>
       </c>
       <c r="C38" s="12" t="s">
@@ -1527,12 +1492,11 @@
         <v>45612</v>
       </c>
       <c r="G38" s="22">
-        <f ca="1"/>
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="25" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="12" t="s">
@@ -1548,12 +1512,11 @@
         <v>45612</v>
       </c>
       <c r="G39" s="22">
-        <f ca="1"/>
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="25" t="s">
         <v>35</v>
       </c>
       <c r="C40" s="15" t="s">
@@ -1569,12 +1532,11 @@
         <v>45612</v>
       </c>
       <c r="G40" s="22">
-        <f ca="1"/>
-        <v>2</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="25" t="s">
         <v>35</v>
       </c>
       <c r="C41" s="15" t="s">
@@ -1590,12 +1552,11 @@
         <v>45612</v>
       </c>
       <c r="G41" s="22">
-        <f ca="1"/>
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="25" t="s">
         <v>35</v>
       </c>
       <c r="C42" s="12" t="s">
@@ -1611,12 +1572,11 @@
         <v>45612</v>
       </c>
       <c r="G42" s="22">
-        <f ca="1"/>
-        <v>90</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="25" t="s">
         <v>35</v>
       </c>
       <c r="C43" s="12" t="s">
@@ -1632,12 +1592,11 @@
         <v>45617</v>
       </c>
       <c r="G43" s="22">
-        <f ca="1"/>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="25" t="s">
         <v>35</v>
       </c>
       <c r="C44" s="15" t="s">
@@ -1653,12 +1612,11 @@
         <v>45617</v>
       </c>
       <c r="G44" s="22">
-        <f ca="1"/>
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="25" t="s">
         <v>35</v>
       </c>
       <c r="C45" s="15" t="s">
@@ -1674,12 +1632,11 @@
         <v>45617</v>
       </c>
       <c r="G45" s="22">
-        <f ca="1"/>
-        <v>58</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="25" t="s">
         <v>35</v>
       </c>
       <c r="C46" s="12" t="s">
@@ -1695,12 +1652,11 @@
         <v>45617</v>
       </c>
       <c r="G46" s="22">
-        <f ca="1"/>
-        <v>95</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="25" t="s">
         <v>35</v>
       </c>
       <c r="C47" s="12" t="s">
@@ -1716,12 +1672,11 @@
         <v>45617</v>
       </c>
       <c r="G47" s="22">
-        <f ca="1"/>
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="25" t="s">
         <v>35</v>
       </c>
       <c r="C48" s="15" t="s">
@@ -1737,12 +1692,11 @@
         <v>45617</v>
       </c>
       <c r="G48" s="22">
-        <f ca="1"/>
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="25" t="s">
         <v>35</v>
       </c>
       <c r="C49" s="15" t="s">
@@ -1758,12 +1712,11 @@
         <v>45617</v>
       </c>
       <c r="G49" s="22">
-        <f ca="1"/>
-        <v>116</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="25" t="s">
         <v>35</v>
       </c>
       <c r="C50" s="12" t="s">
@@ -1779,12 +1732,11 @@
         <v>45617</v>
       </c>
       <c r="G50" s="22">
-        <f ca="1"/>
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -1800,12 +1752,11 @@
         <v>45631</v>
       </c>
       <c r="G51" s="23">
-        <f ca="1"/>
-        <v>94</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B52" s="27" t="s">
+      <c r="B52" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -1821,12 +1772,11 @@
         <v>45631</v>
       </c>
       <c r="G52" s="23">
-        <f ca="1"/>
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -1842,12 +1792,11 @@
         <v>45631</v>
       </c>
       <c r="G53" s="23">
-        <f ca="1"/>
-        <v>127</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B54" s="27" t="s">
+      <c r="B54" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -1863,12 +1812,11 @@
         <v>45631</v>
       </c>
       <c r="G54" s="23">
-        <f ca="1"/>
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B55" s="27" t="s">
+      <c r="B55" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -1884,12 +1832,11 @@
         <v>45632</v>
       </c>
       <c r="G55" s="23">
-        <f ca="1"/>
-        <v>15</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -1905,12 +1852,11 @@
         <v>45631</v>
       </c>
       <c r="G56" s="23">
-        <f ca="1"/>
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B57" s="27" t="s">
+      <c r="B57" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -1926,12 +1872,11 @@
         <v>45631</v>
       </c>
       <c r="G57" s="23">
-        <f ca="1"/>
-        <v>97</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B58" s="27" t="s">
+      <c r="B58" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -1947,12 +1892,11 @@
         <v>45632</v>
       </c>
       <c r="G58" s="23">
-        <f ca="1"/>
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -1968,12 +1912,11 @@
         <v>45637</v>
       </c>
       <c r="G59" s="23">
-        <f ca="1"/>
-        <v>39</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B60" s="27" t="s">
+      <c r="B60" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -1989,12 +1932,11 @@
         <v>45637</v>
       </c>
       <c r="G60" s="23">
-        <f ca="1"/>
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B61" s="27" t="s">
+      <c r="B61" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -2010,12 +1952,11 @@
         <v>45637</v>
       </c>
       <c r="G61" s="23">
-        <f ca="1"/>
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C62" s="4" t="s">
@@ -2031,12 +1972,11 @@
         <v>45637</v>
       </c>
       <c r="G62" s="23">
-        <f ca="1"/>
-        <v>126</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B63" s="27" t="s">
+      <c r="B63" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C63" s="4" t="s">
@@ -2052,12 +1992,11 @@
         <v>45637</v>
       </c>
       <c r="G63" s="23">
-        <f ca="1"/>
-        <v>62</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -2073,12 +2012,11 @@
         <v>45637</v>
       </c>
       <c r="G64" s="23">
-        <f ca="1"/>
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B65" s="27" t="s">
+      <c r="B65" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -2094,12 +2032,11 @@
         <v>45637</v>
       </c>
       <c r="G65" s="23">
-        <f ca="1"/>
-        <v>118</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B66" s="27" t="s">
+      <c r="B66" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C66" s="4" t="s">
@@ -2115,12 +2052,11 @@
         <v>45637</v>
       </c>
       <c r="G66" s="23">
-        <f ca="1"/>
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B67" s="26" t="s">
+      <c r="B67" s="25" t="s">
         <v>37</v>
       </c>
       <c r="C67" s="12" t="s">
@@ -2136,12 +2072,11 @@
         <v>45664</v>
       </c>
       <c r="G67" s="22">
-        <f ca="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="25" t="s">
         <v>37</v>
       </c>
       <c r="C68" s="15" t="s">
@@ -2157,12 +2092,11 @@
         <v>45664</v>
       </c>
       <c r="G68" s="22">
-        <f ca="1"/>
-        <v>14</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B69" s="26" t="s">
+      <c r="B69" s="25" t="s">
         <v>37</v>
       </c>
       <c r="C69" s="15" t="s">
@@ -2178,12 +2112,11 @@
         <v>45664</v>
       </c>
       <c r="G69" s="22">
-        <f ca="1"/>
-        <v>101</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B70" s="26" t="s">
+      <c r="B70" s="25" t="s">
         <v>37</v>
       </c>
       <c r="C70" s="12" t="s">
@@ -2199,12 +2132,11 @@
         <v>45664</v>
       </c>
       <c r="G70" s="22">
-        <f ca="1"/>
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B71" s="26" t="s">
+      <c r="B71" s="25" t="s">
         <v>37</v>
       </c>
       <c r="C71" s="12" t="s">
@@ -2220,12 +2152,11 @@
         <v>45664</v>
       </c>
       <c r="G71" s="22">
-        <f ca="1"/>
-        <v>35</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B72" s="26" t="s">
+      <c r="B72" s="25" t="s">
         <v>37</v>
       </c>
       <c r="C72" s="15" t="s">
@@ -2241,12 +2172,11 @@
         <v>45664</v>
       </c>
       <c r="G72" s="22">
-        <f ca="1"/>
-        <v>53</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B73" s="26" t="s">
+      <c r="B73" s="25" t="s">
         <v>37</v>
       </c>
       <c r="C73" s="15" t="s">
@@ -2262,12 +2192,11 @@
         <v>45664</v>
       </c>
       <c r="G73" s="22">
-        <f ca="1"/>
-        <v>26</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B74" s="26" t="s">
+      <c r="B74" s="25" t="s">
         <v>37</v>
       </c>
       <c r="C74" s="12" t="s">
@@ -2283,12 +2212,11 @@
         <v>45664</v>
       </c>
       <c r="G74" s="22">
-        <f ca="1"/>
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B75" s="26" t="s">
+      <c r="B75" s="25" t="s">
         <v>37</v>
       </c>
       <c r="C75" s="12" t="s">
@@ -2304,12 +2232,11 @@
         <v>45665</v>
       </c>
       <c r="G75" s="22">
-        <f ca="1"/>
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B76" s="26" t="s">
+      <c r="B76" s="25" t="s">
         <v>37</v>
       </c>
       <c r="C76" s="15" t="s">
@@ -2325,12 +2252,11 @@
         <v>45665</v>
       </c>
       <c r="G76" s="22">
-        <f ca="1"/>
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B77" s="26" t="s">
+      <c r="B77" s="25" t="s">
         <v>37</v>
       </c>
       <c r="C77" s="15" t="s">
@@ -2346,12 +2272,11 @@
         <v>45665</v>
       </c>
       <c r="G77" s="22">
-        <f ca="1"/>
-        <v>3</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B78" s="26" t="s">
+      <c r="B78" s="25" t="s">
         <v>37</v>
       </c>
       <c r="C78" s="12" t="s">
@@ -2367,12 +2292,11 @@
         <v>45665</v>
       </c>
       <c r="G78" s="22">
-        <f ca="1"/>
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B79" s="26" t="s">
+      <c r="B79" s="25" t="s">
         <v>37</v>
       </c>
       <c r="C79" s="12" t="s">
@@ -2388,12 +2312,11 @@
         <v>45665</v>
       </c>
       <c r="G79" s="22">
-        <f ca="1"/>
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B80" s="26" t="s">
+      <c r="B80" s="25" t="s">
         <v>37</v>
       </c>
       <c r="C80" s="15" t="s">
@@ -2409,12 +2332,11 @@
         <v>45665</v>
       </c>
       <c r="G80" s="22">
-        <f ca="1"/>
-        <v>123</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="B81" s="26" t="s">
+      <c r="B81" s="25" t="s">
         <v>37</v>
       </c>
       <c r="C81" s="15" t="s">
@@ -2430,15 +2352,14 @@
         <v>45665</v>
       </c>
       <c r="G81" s="22">
-        <f ca="1"/>
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="H81" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="82" spans="2:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="B82" s="26" t="s">
+      <c r="B82" s="25" t="s">
         <v>37</v>
       </c>
       <c r="C82" s="12" t="s">
@@ -2454,12 +2375,11 @@
         <v>45665</v>
       </c>
       <c r="G82" s="22">
-        <f ca="1"/>
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="B83" s="27" t="s">
+      <c r="B83" s="26" t="s">
         <v>39</v>
       </c>
       <c r="C83" s="4" t="s">
@@ -2475,12 +2395,11 @@
         <v>45688</v>
       </c>
       <c r="G83" s="23">
-        <f ca="1"/>
-        <v>113</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="B84" s="27" t="s">
+      <c r="B84" s="26" t="s">
         <v>39</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -2496,12 +2415,11 @@
         <v>45688</v>
       </c>
       <c r="G84" s="23">
-        <f ca="1"/>
-        <v>52</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="2:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="B85" s="27" t="s">
+      <c r="B85" s="26" t="s">
         <v>39</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -2517,12 +2435,11 @@
         <v>45688</v>
       </c>
       <c r="G85" s="23">
-        <f ca="1"/>
-        <v>110</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86" spans="2:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="B86" s="27" t="s">
+      <c r="B86" s="26" t="s">
         <v>39</v>
       </c>
       <c r="C86" s="4" t="s">
@@ -2538,12 +2455,11 @@
         <v>45688</v>
       </c>
       <c r="G86" s="23">
-        <f ca="1"/>
-        <v>77</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="B87" s="27" t="s">
+      <c r="B87" s="26" t="s">
         <v>39</v>
       </c>
       <c r="C87" s="4" t="s">
@@ -2559,12 +2475,11 @@
         <v>45688</v>
       </c>
       <c r="G87" s="23">
-        <f ca="1"/>
-        <v>41</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="2:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="B88" s="27" t="s">
+      <c r="B88" s="26" t="s">
         <v>39</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -2580,12 +2495,11 @@
         <v>45688</v>
       </c>
       <c r="G88" s="23">
-        <f ca="1"/>
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="B89" s="27" t="s">
+      <c r="B89" s="26" t="s">
         <v>39</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -2601,12 +2515,11 @@
         <v>45688</v>
       </c>
       <c r="G89" s="23">
-        <f ca="1"/>
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="2:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="B90" s="27" t="s">
+      <c r="B90" s="26" t="s">
         <v>39</v>
       </c>
       <c r="C90" s="4" t="s">
@@ -2622,12 +2535,11 @@
         <v>45688</v>
       </c>
       <c r="G90" s="23">
-        <f ca="1"/>
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="B91" s="27" t="s">
+      <c r="B91" s="26" t="s">
         <v>39</v>
       </c>
       <c r="C91" s="4" t="s">
@@ -2643,12 +2555,11 @@
         <v>45692</v>
       </c>
       <c r="G91" s="23">
-        <f ca="1"/>
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="B92" s="27" t="s">
+      <c r="B92" s="26" t="s">
         <v>39</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -2664,12 +2575,11 @@
         <v>45692</v>
       </c>
       <c r="G92" s="23">
-        <f ca="1"/>
-        <v>98</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="B93" s="27" t="s">
+      <c r="B93" s="26" t="s">
         <v>39</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -2685,12 +2595,11 @@
         <v>45695</v>
       </c>
       <c r="G93" s="23">
-        <f ca="1"/>
-        <v>87</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="B94" s="27" t="s">
+      <c r="B94" s="26" t="s">
         <v>39</v>
       </c>
       <c r="C94" s="4" t="s">
@@ -2706,12 +2615,11 @@
         <v>45695</v>
       </c>
       <c r="G94" s="23">
-        <f ca="1"/>
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="B95" s="27" t="s">
+      <c r="B95" s="26" t="s">
         <v>39</v>
       </c>
       <c r="C95" s="4" t="s">
@@ -2727,12 +2635,11 @@
         <v>45692</v>
       </c>
       <c r="G95" s="23">
-        <f ca="1"/>
-        <v>81</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="B96" s="27" t="s">
+      <c r="B96" s="26" t="s">
         <v>39</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -2748,12 +2655,11 @@
         <v>45692</v>
       </c>
       <c r="G96" s="23">
-        <f ca="1"/>
-        <v>47</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B97" s="27" t="s">
+      <c r="B97" s="26" t="s">
         <v>39</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -2769,12 +2675,11 @@
         <v>45692</v>
       </c>
       <c r="G97" s="23">
-        <f ca="1"/>
-        <v>12</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B98" s="27" t="s">
+      <c r="B98" s="26" t="s">
         <v>39</v>
       </c>
       <c r="C98" s="4" t="s">
@@ -2790,12 +2695,11 @@
         <v>45692</v>
       </c>
       <c r="G98" s="23">
-        <f ca="1"/>
-        <v>24</v>
+        <v>78</v>
       </c>
     </row>
     <row r="99" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B99" s="26" t="s">
+      <c r="B99" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C99" s="12" t="s">
@@ -2811,12 +2715,11 @@
         <v>45721</v>
       </c>
       <c r="G99" s="22">
-        <f ca="1"/>
-        <v>9</v>
+        <v>62</v>
       </c>
     </row>
     <row r="100" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B100" s="26" t="s">
+      <c r="B100" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C100" s="15" t="s">
@@ -2832,12 +2735,11 @@
         <v>45721</v>
       </c>
       <c r="G100" s="22">
-        <f ca="1"/>
-        <v>48</v>
+        <v>94</v>
       </c>
     </row>
     <row r="101" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B101" s="26" t="s">
+      <c r="B101" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C101" s="15" t="s">
@@ -2853,12 +2755,11 @@
         <v>45721</v>
       </c>
       <c r="G101" s="22">
-        <f ca="1"/>
-        <v>74</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B102" s="26" t="s">
+      <c r="B102" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C102" s="12" t="s">
@@ -2874,12 +2775,11 @@
         <v>45721</v>
       </c>
       <c r="G102" s="22">
-        <f ca="1"/>
-        <v>38</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B103" s="26" t="s">
+      <c r="B103" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C103" s="12" t="s">
@@ -2895,12 +2795,11 @@
         <v>45721</v>
       </c>
       <c r="G103" s="22">
-        <f ca="1"/>
-        <v>92</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B104" s="26" t="s">
+      <c r="B104" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C104" s="15" t="s">
@@ -2916,12 +2815,11 @@
         <v>45721</v>
       </c>
       <c r="G104" s="22">
-        <f ca="1"/>
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="105" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B105" s="26" t="s">
+      <c r="B105" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C105" s="15" t="s">
@@ -2937,12 +2835,11 @@
         <v>45721</v>
       </c>
       <c r="G105" s="22">
-        <f ca="1"/>
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="106" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B106" s="26" t="s">
+      <c r="B106" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C106" s="12" t="s">
@@ -2958,12 +2855,11 @@
         <v>45721</v>
       </c>
       <c r="G106" s="22">
-        <f ca="1"/>
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="107" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B107" s="26" t="s">
+      <c r="B107" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C107" s="12" t="s">
@@ -2979,12 +2875,11 @@
         <v>45723</v>
       </c>
       <c r="G107" s="22">
-        <f ca="1"/>
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="108" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B108" s="26" t="s">
+      <c r="B108" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C108" s="15" t="s">
@@ -3000,12 +2895,11 @@
         <v>45723</v>
       </c>
       <c r="G108" s="22">
-        <f ca="1"/>
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="109" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B109" s="26" t="s">
+      <c r="B109" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C109" s="15" t="s">
@@ -3021,12 +2915,11 @@
         <v>45723</v>
       </c>
       <c r="G109" s="22">
-        <f ca="1"/>
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="110" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B110" s="26" t="s">
+      <c r="B110" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C110" s="12" t="s">
@@ -3042,12 +2935,11 @@
         <v>45723</v>
       </c>
       <c r="G110" s="22">
-        <f ca="1"/>
         <v>108</v>
       </c>
     </row>
     <row r="111" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B111" s="26" t="s">
+      <c r="B111" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C111" s="12" t="s">
@@ -3063,12 +2955,11 @@
         <v>45723</v>
       </c>
       <c r="G111" s="22">
-        <f ca="1"/>
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B112" s="26" t="s">
+      <c r="B112" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C112" s="15" t="s">
@@ -3084,12 +2975,11 @@
         <v>45723</v>
       </c>
       <c r="G112" s="22">
-        <f ca="1"/>
-        <v>121</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B113" s="26" t="s">
+      <c r="B113" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C113" s="15" t="s">
@@ -3105,12 +2995,11 @@
         <v>45723</v>
       </c>
       <c r="G113" s="22">
-        <f ca="1"/>
-        <v>72</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B114" s="26" t="s">
+      <c r="B114" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C114" s="12" t="s">
@@ -3126,12 +3015,11 @@
         <v>45723</v>
       </c>
       <c r="G114" s="22">
-        <f ca="1"/>
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="115" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B115" s="27" t="s">
+      <c r="B115" s="26" t="s">
         <v>41</v>
       </c>
       <c r="C115" s="4" t="s">
@@ -3147,12 +3035,11 @@
         <v>45737</v>
       </c>
       <c r="G115" s="23">
-        <f ca="1"/>
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="116" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B116" s="27" t="s">
+      <c r="B116" s="26" t="s">
         <v>41</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -3168,12 +3055,11 @@
         <v>45737</v>
       </c>
       <c r="G116" s="23">
-        <f ca="1"/>
-        <v>114</v>
+        <v>66</v>
       </c>
     </row>
     <row r="117" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B117" s="27" t="s">
+      <c r="B117" s="26" t="s">
         <v>41</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -3189,12 +3075,11 @@
         <v>45737</v>
       </c>
       <c r="G117" s="23">
-        <f ca="1"/>
-        <v>57</v>
+        <v>105</v>
       </c>
     </row>
     <row r="118" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B118" s="27" t="s">
+      <c r="B118" s="26" t="s">
         <v>41</v>
       </c>
       <c r="C118" s="4" t="s">
@@ -3210,12 +3095,11 @@
         <v>45737</v>
       </c>
       <c r="G118" s="23">
-        <f ca="1"/>
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="119" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B119" s="27" t="s">
+      <c r="B119" s="26" t="s">
         <v>41</v>
       </c>
       <c r="C119" s="4" t="s">
@@ -3231,12 +3115,11 @@
         <v>45737</v>
       </c>
       <c r="G119" s="23">
-        <f ca="1"/>
-        <v>46</v>
+        <v>104</v>
       </c>
     </row>
     <row r="120" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B120" s="27" t="s">
+      <c r="B120" s="26" t="s">
         <v>41</v>
       </c>
       <c r="C120" s="1" t="s">
@@ -3252,12 +3135,11 @@
         <v>45737</v>
       </c>
       <c r="G120" s="23">
-        <f ca="1"/>
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="121" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B121" s="27" t="s">
+      <c r="B121" s="26" t="s">
         <v>41</v>
       </c>
       <c r="C121" s="1" t="s">
@@ -3273,12 +3155,11 @@
         <v>45737</v>
       </c>
       <c r="G121" s="23">
-        <f ca="1"/>
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B122" s="27" t="s">
+      <c r="B122" s="26" t="s">
         <v>41</v>
       </c>
       <c r="C122" s="4" t="s">
@@ -3294,12 +3175,11 @@
         <v>45737</v>
       </c>
       <c r="G122" s="23">
-        <f ca="1"/>
-        <v>71</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B123" s="27" t="s">
+      <c r="B123" s="26" t="s">
         <v>41</v>
       </c>
       <c r="C123" s="4" t="s">
@@ -3315,12 +3195,11 @@
         <v>45744</v>
       </c>
       <c r="G123" s="23">
-        <f ca="1"/>
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="124" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B124" s="27" t="s">
+      <c r="B124" s="26" t="s">
         <v>41</v>
       </c>
       <c r="C124" s="1" t="s">
@@ -3336,12 +3215,11 @@
         <v>45744</v>
       </c>
       <c r="G124" s="23">
-        <f ca="1"/>
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="125" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B125" s="27" t="s">
+      <c r="B125" s="26" t="s">
         <v>41</v>
       </c>
       <c r="C125" s="1" t="s">
@@ -3357,12 +3235,11 @@
         <v>45744</v>
       </c>
       <c r="G125" s="23">
-        <f ca="1"/>
-        <v>88</v>
+        <v>65</v>
       </c>
     </row>
     <row r="126" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B126" s="27" t="s">
+      <c r="B126" s="26" t="s">
         <v>41</v>
       </c>
       <c r="C126" s="4" t="s">
@@ -3378,12 +3255,11 @@
         <v>45744</v>
       </c>
       <c r="G126" s="23">
-        <f ca="1"/>
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="127" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B127" s="27" t="s">
+      <c r="B127" s="26" t="s">
         <v>41</v>
       </c>
       <c r="C127" s="4" t="s">
@@ -3399,12 +3275,11 @@
         <v>45744</v>
       </c>
       <c r="G127" s="23">
-        <f ca="1"/>
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="128" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B128" s="27" t="s">
+      <c r="B128" s="26" t="s">
         <v>41</v>
       </c>
       <c r="C128" s="1" t="s">
@@ -3420,12 +3295,11 @@
         <v>45744</v>
       </c>
       <c r="G128" s="23">
-        <f ca="1"/>
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="129" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B129" s="27" t="s">
+      <c r="B129" s="26" t="s">
         <v>41</v>
       </c>
       <c r="C129" s="1" t="s">
@@ -3441,12 +3315,11 @@
         <v>45744</v>
       </c>
       <c r="G129" s="23">
-        <f ca="1"/>
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130" spans="2:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="B130" s="27" t="s">
+      <c r="B130" s="26" t="s">
         <v>41</v>
       </c>
       <c r="C130" s="4" t="s">
@@ -3462,7 +3335,6 @@
         <v>45744</v>
       </c>
       <c r="G130" s="23">
-        <f ca="1"/>
         <v>124</v>
       </c>
     </row>
